--- a/IG 粉絲數量.xlsx
+++ b/IG 粉絲數量.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\POPMART\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\桌面\python\vstest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963EEE23-3984-4CCC-BD94-056AFAA6426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C520DC72-7B7D-4B9F-B01F-D0F4D98CDAE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IG 2025-6-25" sheetId="2" r:id="rId1"/>
     <sheet name="店面" sheetId="3" r:id="rId2"/>
+    <sheet name="人口" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -300,19 +300,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -696,21 +696,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF0DE55-2F01-4433-A816-DA9B548C65EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -724,13 +724,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.399999999999999">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -738,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17.399999999999999">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -754,7 +754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -762,7 +762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.399999999999999">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.399999999999999">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -778,7 +778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17.399999999999999">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -786,7 +786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17.399999999999999">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -794,7 +794,7 @@
         <v>68768</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17.399999999999999">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -802,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -810,7 +810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17.399999999999999">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -818,7 +818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -826,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.399999999999999">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.399999999999999">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -842,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.399999999999999">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -850,7 +850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.399999999999999">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -858,7 +858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.399999999999999">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -866,7 +866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.399999999999999">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -874,7 +874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.399999999999999">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -882,7 +882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>45833</v>
       </c>
@@ -894,16 +894,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F4ADE4-AD59-4D94-A834-255D7A63093A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -914,7 +914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -925,7 +925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -936,7 +936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -947,7 +947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -958,7 +958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -969,7 +969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -980,7 +980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -991,7 +991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -1039,4 +1039,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>